--- a/biology/Médecine/Algernon_Coolidge/Algernon_Coolidge.xlsx
+++ b/biology/Médecine/Algernon_Coolidge/Algernon_Coolidge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Algernon Sidney Coolidge est un chirurgien ORL américain né à Boston le 24 janvier 1860 et mort le 16 août 1912[1].  Il est connu pour ses travaux sur l'endoscopie ORL et de l'œsophage, et est le premier à réaliser une bronchoscopie en Amérique du Nord, pour retirer un corps étranger (l'article fut publié le 30 septembre 1899).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Algernon Sidney Coolidge est un chirurgien ORL américain né à Boston le 24 janvier 1860 et mort le 16 août 1912.  Il est connu pour ses travaux sur l'endoscopie ORL et de l'œsophage, et est le premier à réaliser une bronchoscopie en Amérique du Nord, pour retirer un corps étranger (l'article fut publié le 30 septembre 1899).
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Algernon Coolidge est le fils de Joseph Coolidge IV (1798-1879) et Eleonora Wayles Coolidge (1796-1876, fille du gouverneur de Virginie Thomas Mann Randolph Jr. et petite-fille du président américain Thomas Jefferson)[2], une famille brahmane de Boston. Son frère jumeau Philip Sidney est tué le 19 septembre 1863 pendant la Guerre de Sécession à la bataille de Chickamauga[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Algernon Coolidge est le fils de Joseph Coolidge IV (1798-1879) et Eleonora Wayles Coolidge (1796-1876, fille du gouverneur de Virginie Thomas Mann Randolph Jr. et petite-fille du président américain Thomas Jefferson), une famille brahmane de Boston. Son frère jumeau Philip Sidney est tué le 19 septembre 1863 pendant la Guerre de Sécession à la bataille de Chickamauga.
 Diplômé de l'université Harvard en 1853, il a également étudié la médecine à Vienne.
-Il épouse Mary Coolidge, née Lowell (1833-1915) en 1856[4]. Le couple a eu cinq enfants : Algernon Sidney Coolidge, Jr. ; Francis Lowell Coolidge ; Sidney Coolidge ; Ellen Wayles Coolidge et Mary Lowell Barton.
+Il épouse Mary Coolidge, née Lowell (1833-1915) en 1856. Le couple a eu cinq enfants : Algernon Sidney Coolidge, Jr. ; Francis Lowell Coolidge ; Sidney Coolidge ; Ellen Wayles Coolidge et Mary Lowell Barton.
 Il exerce au Massachusetts General Hospital à partir de 1888. Il est nommé professeur en 1911. Algernon Coolidge prend sa retraite en 1920 et rejoint ensuite un comité destiné à l'amélioration des conditions dans les hôpitaux psychiatriques.
 </t>
         </is>
